--- a/bots/crawl_ch/output/bread_coop_2022-12-04.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-04.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6498,45 +6498,45 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3041295</t>
+          <t>6701117</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Birnweggen 3 Stück</t>
+          <t>Harry Frischback Rosenbrötchen hell</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-3-stueck/p/3041295</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/harry-frischback-rosenbroetchen-hell/p/6701117</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
         <v>4.5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Harry</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.55/100g</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6556,42 +6556,42 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Birnweggen 3 Stück 2.95 Schweizer Franken</t>
+          <t>Harry Frischback Rosenbrötchen hell 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6701117</t>
+          <t>6709166</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Harry Frischback Rosenbrötchen hell</t>
+          <t>Harry Frischback Rosenbrötchen dunkel</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/harry-frischback-rosenbroetchen-hell/p/6701117</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/harry-frischback-rosenbroetchen-dunkel/p/6709166</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E87" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -6600,12 +6600,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.55/100g</t>
+          <t>0.61/100g</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6630,51 +6630,51 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Harry Frischback Rosenbrötchen hell 2.80 Schweizer Franken</t>
+          <t>Harry Frischback Rosenbrötchen dunkel 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6709166</t>
+          <t>3041295</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Harry Frischback Rosenbrötchen dunkel</t>
+          <t>Naturaplan Bio Birnweggen 3 Stück</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/harry-frischback-rosenbroetchen-dunkel/p/6709166</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-3-stueck/p/3041295</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Harry</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.61/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6694,18 +6694,18 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Harry Frischback Rosenbrötchen dunkel 3.10 Schweizer Franken</t>
+          <t>Naturaplan Bio Birnweggen 3 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7488,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9825,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10113,45 +10113,45 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5689599</t>
+          <t>4283951</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Vollkorn</t>
+          <t>Naturaplan Bio Mehrkornbrötli</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-vollkorn/p/5689599</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.73/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10171,56 +10171,60 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Vollkorn 1.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr"/>
+          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>4283951</t>
+          <t>5689599</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli</t>
+          <t>Wasa Knäckebrot Vollkorn</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-vollkorn/p/5689599</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E138" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>0.73/100g</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10230,7 +10234,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10240,22 +10244,18 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot Vollkorn 1.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11387,7 +11387,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11456,7 +11456,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11598,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11667,7 +11667,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12020,7 +12020,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12235,7 +12235,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12446,7 +12446,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12592,7 +12592,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13302,7 +13302,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13371,7 +13371,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14304,7 +14304,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14446,7 +14446,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14515,7 +14515,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14584,7 +14584,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14724,7 +14724,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14793,7 +14793,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14862,7 +14862,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -14931,7 +14931,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15004,7 +15004,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15142,7 +15142,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15211,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15284,7 +15284,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15649,45 +15649,45 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>5671230</t>
+          <t>4859018</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm</t>
+          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-sandwich-tomate-basilicum/p/4859018</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E215" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15697,7 +15697,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15707,60 +15707,56 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>4859018</t>
+          <t>5671230</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum</t>
+          <t>Betty Bossi Pizzateig Ø28cm</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-sandwich-tomate-basilicum/p/4859018</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E216" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15770,7 +15766,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15780,18 +15776,22 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N216" t="inlineStr"/>
+          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15864,7 +15864,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -15933,7 +15933,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16071,7 +16071,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16144,28 +16144,28 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>4886666</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E222" t="n">
         <v>4.5</v>
@@ -16177,12 +16177,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2.73/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16202,39 +16202,39 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 8.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>4886666</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E223" t="n">
         <v>4.5</v>
@@ -16246,12 +16246,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>2.73/100g</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16261,7 +16261,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16271,18 +16271,18 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
+          <t>Naturaplan Bio Bündner Nusstorte 8.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16351,7 +16351,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16424,7 +16424,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16566,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16708,7 +16708,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16777,7 +16777,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -16984,7 +16984,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17053,7 +17053,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17122,7 +17122,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17191,7 +17191,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17260,7 +17260,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17329,7 +17329,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17402,7 +17402,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17471,7 +17471,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17544,7 +17544,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17613,7 +17613,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17759,7 +17759,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17828,7 +17828,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17897,7 +17897,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -17970,7 +17970,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18039,7 +18039,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18112,7 +18112,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18254,7 +18254,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18394,7 +18394,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18467,7 +18467,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18536,7 +18536,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18682,7 +18682,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18751,7 +18751,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18820,7 +18820,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18889,7 +18889,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -18958,7 +18958,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19027,7 +19027,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19100,7 +19100,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19244,7 +19244,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19313,7 +19313,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19382,7 +19382,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19528,7 +19528,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19601,7 +19601,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19674,7 +19674,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19887,7 +19887,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20102,45 +20102,45 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>5765910</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra</t>
+          <t>Häberlein-Metzger Oblaten-Lebkuchen Schokolade</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/haeberlein-metzger-oblaten-lebkuchen-schokolade/p/5765910</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E278" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Häberlein/Metzger</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20150,7 +20150,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20160,60 +20160,56 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N278" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Häberlein-Metzger Oblaten-Lebkuchen Schokolade 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>5765910</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Häberlein-Metzger Oblaten-Lebkuchen Schokolade</t>
+          <t>Buitoni Pizzateig rund Extra</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/haeberlein-metzger-oblaten-lebkuchen-schokolade/p/5765910</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E279" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Häberlein/Metzger</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20223,7 +20219,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20233,18 +20229,22 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Häberlein-Metzger Oblaten-Lebkuchen Schokolade 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N279" t="inlineStr"/>
+          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20317,7 +20317,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20384,7 +20384,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20453,7 +20453,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20526,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20595,7 +20595,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20664,7 +20664,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21163,7 +21163,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21524,7 +21524,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21739,7 +21739,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21808,7 +21808,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -21950,7 +21950,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22019,7 +22019,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22086,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22159,7 +22159,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22228,7 +22228,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22297,7 +22297,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22370,45 +22370,45 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E310" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.52/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22418,7 +22418,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22428,60 +22428,56 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Guezli Fruits 33% ab 3 Aktion 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E311" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2.52/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22491,7 +22487,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22501,56 +22497,60 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 33% ab 3 Aktion 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr"/>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E312" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22560,7 +22560,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22570,22 +22570,22 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22654,7 +22654,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22727,7 +22727,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22796,7 +22796,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22869,7 +22869,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -22938,7 +22938,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23007,28 +23007,28 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>3378447</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Betty Bossi Anis-Chräbeli Guetzliteig</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-anis-chraebeli-guetzliteig/p/3378447</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -23040,12 +23040,12 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>0.68/100g</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23055,7 +23055,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23065,56 +23065,60 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N319" t="inlineStr"/>
+          <t>Betty Bossi Anis-Chräbeli Guetzliteig 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E320" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23124,7 +23128,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23134,60 +23138,56 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 20% ab 2 Aktion 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Sesam 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>3378447</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Betty Bossi Anis-Chräbeli Guetzliteig</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-anis-chraebeli-guetzliteig/p/3378447</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E321" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>0.68/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23197,7 +23197,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23207,22 +23207,22 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Betty Bossi Anis-Chräbeli Guetzliteig 3.40 Schweizer Franken</t>
+          <t>Old El Paso Tortilla Bowls Seasalt 20% ab 2 Aktion 3.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23295,7 +23295,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23364,7 +23364,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23433,7 +23433,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23502,7 +23502,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23571,7 +23571,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23640,7 +23640,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23709,7 +23709,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23782,7 +23782,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23855,7 +23855,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23928,7 +23928,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -23997,7 +23997,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24066,7 +24066,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24135,7 +24135,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24208,7 +24208,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24277,7 +24277,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24346,7 +24346,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24413,7 +24413,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24482,7 +24482,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24551,7 +24551,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24624,7 +24624,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24697,7 +24697,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24766,7 +24766,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24835,7 +24835,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24908,7 +24908,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -24981,7 +24981,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25050,7 +25050,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25119,7 +25119,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25192,7 +25192,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25261,7 +25261,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25328,7 +25328,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25397,7 +25397,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25470,7 +25470,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25537,7 +25537,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25606,7 +25606,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25675,7 +25675,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25748,7 +25748,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25817,7 +25817,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25886,7 +25886,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -25955,7 +25955,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26022,7 +26022,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26091,7 +26091,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26160,7 +26160,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26229,7 +26229,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26298,7 +26298,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26367,7 +26367,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26436,7 +26436,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26509,7 +26509,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26578,7 +26578,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26647,7 +26647,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26789,7 +26789,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26858,7 +26858,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26925,7 +26925,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -26994,7 +26994,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27067,7 +27067,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27136,7 +27136,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27209,7 +27209,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27280,7 +27280,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27353,7 +27353,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27426,7 +27426,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27495,7 +27495,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27568,7 +27568,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27637,7 +27637,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27710,7 +27710,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27779,7 +27779,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27850,7 +27850,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27919,7 +27919,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -27990,7 +27990,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28063,7 +28063,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28136,7 +28136,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28205,7 +28205,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28278,7 +28278,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28349,7 +28349,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28418,7 +28418,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28487,7 +28487,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28556,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28623,7 +28623,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28692,7 +28692,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28761,7 +28761,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28830,7 +28830,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28897,7 +28897,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -28966,7 +28966,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -29039,7 +29039,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -29108,7 +29108,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -29181,7 +29181,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
@@ -29254,7 +29254,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-04 12:53:45</t>
+          <t>2022-12-04 20:47:00</t>
         </is>
       </c>
     </row>
